--- a/src/Tests/Samples.VerifyExcel.verified.xlsx
+++ b/src/Tests/Samples.VerifyExcel.verified.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15345" activeTab="0"/>
+    <workbookView xWindow="10320" yWindow="3396" windowWidth="30960" windowHeight="12120" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="76">
   <si>
     <t>First Name</t>
   </si>
@@ -116,6 +116,144 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>DateTime_1</t>
+  </si>
+  <si>
+    <t>DateTime_2</t>
+  </si>
+  <si>
+    <t>DateTime_3</t>
+  </si>
+  <si>
+    <t>DateTime_4</t>
+  </si>
+  <si>
+    <t>DateTime_5</t>
+  </si>
+  <si>
+    <t>DateTime_6</t>
+  </si>
+  <si>
+    <t>DateTime_7</t>
+  </si>
+  <si>
+    <t>DateTime_8</t>
+  </si>
+  <si>
+    <t>DateTime_9</t>
+  </si>
+  <si>
+    <t>DateTime_10</t>
+  </si>
+  <si>
+    <t>DateTime_11</t>
+  </si>
+  <si>
+    <t>DateTime_12</t>
+  </si>
+  <si>
+    <t>DateTime_13</t>
+  </si>
+  <si>
+    <t>DateTime_14</t>
+  </si>
+  <si>
+    <t>DateTime_15</t>
+  </si>
+  <si>
+    <t>DateTime_16</t>
+  </si>
+  <si>
+    <t>DateTime_17</t>
+  </si>
+  <si>
+    <t>DateTime_18</t>
+  </si>
+  <si>
+    <t>DateTime_19</t>
+  </si>
+  <si>
+    <t>DateTime_20</t>
+  </si>
+  <si>
+    <t>DateTime_21</t>
+  </si>
+  <si>
+    <t>DateTime_22</t>
+  </si>
+  <si>
+    <t>DateTime_23</t>
+  </si>
+  <si>
+    <t>DateTime_24</t>
+  </si>
+  <si>
+    <t>DateTime_25</t>
+  </si>
+  <si>
+    <t>DateTime_26</t>
+  </si>
+  <si>
+    <t>DateTime_27</t>
+  </si>
+  <si>
+    <t>DateTime_28</t>
+  </si>
+  <si>
+    <t>DateTime_29</t>
+  </si>
+  <si>
+    <t>DateTime_30</t>
+  </si>
+  <si>
+    <t>DateTime_31</t>
+  </si>
+  <si>
+    <t>DateTime_32</t>
+  </si>
+  <si>
+    <t>DateTime_33</t>
+  </si>
+  <si>
+    <t>DateTime_34</t>
+  </si>
+  <si>
+    <t>DateTime_35</t>
+  </si>
+  <si>
+    <t>DateTime_36</t>
+  </si>
+  <si>
+    <t>DateTime_37</t>
+  </si>
+  <si>
+    <t>DateTime_38</t>
+  </si>
+  <si>
+    <t>DateTime_39</t>
+  </si>
+  <si>
+    <t>DateTime_40</t>
+  </si>
+  <si>
+    <t>DateTime_41</t>
+  </si>
+  <si>
+    <t>DateTime_42</t>
+  </si>
+  <si>
+    <t>DateTime_43</t>
+  </si>
+  <si>
+    <t>DateTime_44</t>
+  </si>
+  <si>
+    <t>DateTime_45</t>
   </si>
 </sst>
 </file>
@@ -175,7 +313,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment/>
     </xf>
@@ -183,6 +321,9 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -275,9 +416,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +456,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,14 +714,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A6">
-      <selection pane="topLeft" activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A19">
+      <selection pane="topLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4242857142857" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4442857142857" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="11.5714285714286" customWidth="1"/>
-    <col min="8" max="25" width="8.71428571428571" customWidth="1"/>
+    <col min="8" max="8" width="8.71428571428571" customWidth="1"/>
+    <col min="9" max="9" width="11.2857142857143" customWidth="1"/>
+    <col min="10" max="25" width="8.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" customHeight="1">
@@ -608,7 +751,9 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -626,7 +771,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -652,8 +797,11 @@
         <f>G2+A2</f>
         <v>1563</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -679,8 +827,11 @@
         <f t="shared" si="0" ref="H3:H46">G3+A3</f>
         <v>1584</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -706,8 +857,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -733,8 +887,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -760,8 +917,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -787,8 +947,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -814,8 +977,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -841,8 +1007,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -868,8 +1037,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -895,8 +1067,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12">
         <v>2</v>
       </c>
@@ -922,8 +1097,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
       <c r="A13">
         <v>3</v>
       </c>
@@ -949,8 +1127,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1">
       <c r="A14">
         <v>4</v>
       </c>
@@ -976,8 +1157,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1003,8 +1187,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1030,8 +1217,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1057,8 +1247,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1084,8 +1277,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1111,8 +1307,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1138,8 +1337,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1165,8 +1367,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I21" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1192,8 +1397,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1219,8 +1427,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1246,8 +1457,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I24" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1273,8 +1487,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1300,8 +1517,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1327,8 +1547,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1354,8 +1577,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1381,8 +1607,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I29" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" customHeight="1">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1408,8 +1637,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1435,8 +1667,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1462,8 +1697,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I32" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1489,8 +1727,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1516,8 +1757,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1543,8 +1787,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I35" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1570,8 +1817,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I36" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1597,8 +1847,11 @@
         <f t="shared" si="0"/>
         <v>6557</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I37" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1624,8 +1877,11 @@
         <f t="shared" si="0"/>
         <v>1563</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I38" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1651,8 +1907,11 @@
         <f t="shared" si="0"/>
         <v>1584</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1678,8 +1937,11 @@
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1705,8 +1967,11 @@
         <f t="shared" si="0"/>
         <v>3553</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1732,8 +1997,11 @@
         <f t="shared" si="0"/>
         <v>2473</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I42" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1759,8 +2027,11 @@
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I43" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1786,8 +2057,11 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I44" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1813,8 +2087,11 @@
         <f t="shared" si="0"/>
         <v>2464</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1">
+      <c r="I45" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1839,6 +2116,9 @@
       <c r="H46">
         <f t="shared" si="0"/>
         <v>6557</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1"/>
